--- a/arranged_dataset/review/alpine_review.xlsx
+++ b/arranged_dataset/review/alpine_review.xlsx
@@ -2740,10 +2740,10 @@
         <v>99.5</v>
       </c>
       <c r="E2">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F2">
-        <v>-0.2633419150300444</v>
+        <v>-3.140615678648309</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100" customHeight="1">
@@ -2757,10 +2757,10 @@
         <v>99</v>
       </c>
       <c r="E3">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F3">
-        <v>-0.2286072125441956</v>
+        <v>-2.726369616802076</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1">
@@ -2774,10 +2774,10 @@
         <v>92</v>
       </c>
       <c r="E4">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F4">
-        <v>-0.121506765009618</v>
+        <v>-1.449089679504704</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1">
@@ -2791,10 +2791,10 @@
         <v>99</v>
       </c>
       <c r="E5">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F5">
-        <v>-0.2286072125441956</v>
+        <v>-2.726369616802076</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1">
@@ -2808,10 +2808,10 @@
         <v>99.5</v>
       </c>
       <c r="E6">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F6">
-        <v>-0.2633419150300444</v>
+        <v>-3.140615678648309</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1">
@@ -2825,10 +2825,10 @@
         <v>99.5</v>
       </c>
       <c r="E7">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F7">
-        <v>-0.2633419150300444</v>
+        <v>-3.140615678648309</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
@@ -2842,10 +2842,10 @@
         <v>93.5</v>
       </c>
       <c r="E8">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F8">
-        <v>-0.1326414231548042</v>
+        <v>-1.581881612544195</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
@@ -2859,10 +2859,10 @@
         <v>94.5</v>
       </c>
       <c r="E9">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F9">
-        <v>-0.1414816241774983</v>
+        <v>-1.687309849940845</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100" customHeight="1">
@@ -2876,10 +2876,10 @@
         <v>89</v>
       </c>
       <c r="E10">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F10">
-        <v>-0.104014369572455</v>
+        <v>-1.240475371521098</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100" customHeight="1">
@@ -2893,10 +2893,10 @@
         <v>88.5</v>
       </c>
       <c r="E11">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F11">
-        <v>-0.1015226119530728</v>
+        <v>-1.210758670152346</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1">
@@ -2910,10 +2910,10 @@
         <v>92.5</v>
       </c>
       <c r="E12">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F12">
-        <v>-0.1249872047928117</v>
+        <v>-1.490597404359072</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -2927,10 +2927,10 @@
         <v>89.5</v>
       </c>
       <c r="E13">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F13">
-        <v>-0.1066074525638373</v>
+        <v>-1.271400479276324</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -2944,10 +2944,10 @@
         <v>96</v>
       </c>
       <c r="E14">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F14">
-        <v>-0.1581081780598102</v>
+        <v>-1.885598131541296</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -2961,10 +2961,10 @@
         <v>99.5</v>
       </c>
       <c r="E15">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F15">
-        <v>-0.2633419150300444</v>
+        <v>-3.140615678648309</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -2978,10 +2978,10 @@
         <v>99</v>
       </c>
       <c r="E16">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F16">
-        <v>-0.2286072125441956</v>
+        <v>-2.726369616802076</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -2995,10 +2995,10 @@
         <v>88.5</v>
       </c>
       <c r="E17">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F17">
-        <v>-0.1015226119530728</v>
+        <v>-1.210758670152346</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -3012,10 +3012,10 @@
         <v>98</v>
       </c>
       <c r="E18">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F18">
-        <v>-0.1936180598310036</v>
+        <v>-2.309088981544549</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -3029,10 +3029,10 @@
         <v>96</v>
       </c>
       <c r="E19">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F19">
-        <v>-0.1581081780598102</v>
+        <v>-1.885598131541296</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3046,10 +3046,10 @@
         <v>99.5</v>
       </c>
       <c r="E20">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F20">
-        <v>-0.2633419150300444</v>
+        <v>-3.140615678648309</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3063,10 +3063,10 @@
         <v>95</v>
       </c>
       <c r="E21">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F21">
-        <v>-0.1464858392135305</v>
+        <v>-1.746990118460564</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3080,10 +3080,10 @@
         <v>99</v>
       </c>
       <c r="E22">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F22">
-        <v>-0.2286072125441956</v>
+        <v>-2.726369616802076</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -3097,10 +3097,10 @@
         <v>86.5</v>
       </c>
       <c r="E23">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F23">
-        <v>-0.09240837274254911</v>
+        <v>-1.102062253327641</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -3114,10 +3114,10 @@
         <v>73.91304347826087</v>
       </c>
       <c r="E24">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F24">
-        <v>-0.05181233027270103</v>
+        <v>-0.6179138508322325</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3131,10 +3131,10 @@
         <v>80.97826086956522</v>
       </c>
       <c r="E25">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F25">
-        <v>-0.07206776266168827</v>
+        <v>-0.8594801375032942</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3148,10 +3148,10 @@
         <v>50.325</v>
       </c>
       <c r="E26">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F26">
-        <v>-0.000646759108626748</v>
+        <v>-0.007713249129482597</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3165,10 +3165,10 @@
         <v>92.39130434782609</v>
       </c>
       <c r="E27">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F27">
-        <v>-0.1242128700948915</v>
+        <v>-1.481362688751675</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -3182,10 +3182,10 @@
         <v>67.5</v>
       </c>
       <c r="E28">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F28">
-        <v>-0.03636165355000393</v>
+        <v>-0.4336490802373468</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3199,10 +3199,10 @@
         <v>98</v>
       </c>
       <c r="E29">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F29">
-        <v>-0.1936180598310036</v>
+        <v>-2.309088981544549</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3216,10 +3216,10 @@
         <v>94.5</v>
       </c>
       <c r="E30">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F30">
-        <v>-0.1414816241774983</v>
+        <v>-1.687309849940845</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3233,10 +3233,10 @@
         <v>82.5</v>
       </c>
       <c r="E31">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F31">
-        <v>-0.07714222126745555</v>
+        <v>-0.9199981308356748</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3250,10 +3250,10 @@
         <v>79</v>
       </c>
       <c r="E32">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F32">
-        <v>-0.06591503938349402</v>
+        <v>-0.7861027596875496</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3267,10 +3267,10 @@
         <v>71.73913043478261</v>
       </c>
       <c r="E33">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F33">
-        <v>-0.04634502064924593</v>
+        <v>-0.5527107162629069</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -3284,10 +3284,10 @@
         <v>82.06521739130434</v>
       </c>
       <c r="E34">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F34">
-        <v>-0.0756584206985851</v>
+        <v>-0.9023023252513258</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3301,10 +3301,10 @@
         <v>55.21739130434783</v>
       </c>
       <c r="E35">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F35">
-        <v>-0.01042054038689054</v>
+        <v>-0.1242753646540566</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3318,10 +3318,10 @@
         <v>98.36956521739131</v>
       </c>
       <c r="E36">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F36">
-        <v>-0.2039692659442368</v>
+        <v>-2.432537465650968</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -3335,10 +3335,10 @@
         <v>3.260869565217391</v>
       </c>
       <c r="E37">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F37">
-        <v>0.1686536980329355</v>
+        <v>2.011364002740789</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -3352,10 +3352,10 @@
         <v>2.173913043478265</v>
       </c>
       <c r="E38">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F38">
-        <v>0.1893814588660733</v>
+        <v>2.25856327843679</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -3369,10 +3369,10 @@
         <v>2.173913043478265</v>
       </c>
       <c r="E39">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F39">
-        <v>0.1893814588660733</v>
+        <v>2.25856327843679</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -3386,10 +3386,10 @@
         <v>4.891304347826086</v>
       </c>
       <c r="E40">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F40">
-        <v>0.1476361794802179</v>
+        <v>1.760709076481079</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -3403,10 +3403,10 @@
         <v>16.84782608695652</v>
       </c>
       <c r="E41">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F41">
-        <v>0.07942342316613764</v>
+        <v>0.9472037446793573</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -3420,10 +3420,10 @@
         <v>92.93478260869566</v>
       </c>
       <c r="E42">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F42">
-        <v>-0.1281915314022959</v>
+        <v>-1.528812203503781</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -3437,10 +3437,10 @@
         <v>94.56521739130434</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F43">
-        <v>-0</v>
+        <v>-1.552687225289959</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -3454,10 +3454,10 @@
         <v>89.13043478260869</v>
       </c>
       <c r="E44">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F44">
-        <v>-0.1046806741749428</v>
+        <v>-1.248421720210368</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -3471,10 +3471,10 @@
         <v>99.5</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F45">
-        <v>-0</v>
+        <v>-2.877273763618265</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -3488,10 +3488,10 @@
         <v>97.82608695652173</v>
       </c>
       <c r="E46">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F46">
-        <v>-0.1893814588660731</v>
+        <v>-2.258563278436788</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -3505,10 +3505,10 @@
         <v>97.82608695652173</v>
       </c>
       <c r="E47">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F47">
-        <v>-0.1893814588660731</v>
+        <v>-2.258563278436788</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -3522,10 +3522,10 @@
         <v>99.5</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F48">
-        <v>-0</v>
+        <v>-2.877273763618265</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -3539,10 +3539,10 @@
         <v>55.43478260869566</v>
       </c>
       <c r="E49">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F49">
-        <v>-0.01085811490949591</v>
+        <v>-0.1294938784106482</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -3556,10 +3556,10 @@
         <v>90.76086956521739</v>
       </c>
       <c r="E50">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F50">
-        <v>-0.1136678283009368</v>
+        <v>-1.355602520316972</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -3573,10 +3573,10 @@
         <v>99.5</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F51">
-        <v>-0</v>
+        <v>-2.877273763618265</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -3590,10 +3590,10 @@
         <v>95.10869565217391</v>
       </c>
       <c r="E52">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F52">
-        <v>-0.1476361794802178</v>
+        <v>-1.760709076481077</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -3607,10 +3607,10 @@
         <v>97.82608695652173</v>
       </c>
       <c r="E53">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F53">
-        <v>-0.1893814588660731</v>
+        <v>-2.258563278436788</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -3624,10 +3624,10 @@
         <v>99.5</v>
       </c>
       <c r="E54">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F54">
-        <v>-0.2633419150300444</v>
+        <v>-3.140615678648309</v>
       </c>
     </row>
   </sheetData>
